--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T21:25:34+00:00</t>
+    <t>2024-09-10T20:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T20:59:56+00:00</t>
+    <t>2024-09-16T23:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:28:14+00:00</t>
+    <t>2024-09-17T14:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:31:31+00:00</t>
+    <t>2024-09-17T18:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:49:04+00:00</t>
+    <t>2024-09-17T23:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T23:38:01+00:00</t>
+    <t>2024-09-21T00:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-21T00:47:01+00:00</t>
+    <t>2024-09-22T11:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T11:40:07+00:00</t>
+    <t>2024-09-23T01:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T01:04:09+00:00</t>
+    <t>2024-10-22T17:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:57:32+00:00</t>
+    <t>2024-10-22T17:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:59:45+00:00</t>
+    <t>2024-10-23T15:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T15:58:47+00:00</t>
+    <t>2024-10-23T18:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:44:18+00:00</t>
+    <t>2024-10-23T18:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:49:00+00:00</t>
+    <t>2024-10-24T19:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T19:50:25+00:00</t>
+    <t>2024-10-25T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/goal-attainment-scaling-score</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/goal-attainment-scaling-score</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,25 +60,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T20:06:08+00:00</t>
+    <t>2024-11-25T08:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC</t>
+    <t>HL7 International / Patient Care</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC (http://mtnlotus.com)</t>
+    <t>HL7 International / Patient Care (http://www.hl7.org/Special/committees/patientcare, patientcare@lists.HL7.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T08:40:55+00:00</t>
+    <t>2024-12-09T23:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T02:30:34+00:00</t>
+    <t>2024-12-13T23:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>This material contains content from LOINC (http://loinc.org). LOINC is copyright © 1995-2020, Regenstrief Institute, Inc. and the Logical Observation Identifiers Names and Codes (LOINC) Committee and is available at no cost under the license at http://loinc.org/license. LOINC® is a registered United States trademark of Regenstrief Institute, Inc</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -382,14 +385,16 @@
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -411,7 +416,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -419,50 +424,50 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-goal-attainment-scaling-score.xlsx
+++ b/ValueSet-goal-attainment-scaling-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,25 +105,25 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>68489</t>
+    <t>107332-9</t>
   </si>
   <si>
     <t>Goal attainment scale</t>
   </si>
   <si>
-    <t>68490</t>
+    <t>107333-7</t>
   </si>
   <si>
     <t>Practitioner follow-up goal attainment scaling score</t>
   </si>
   <si>
-    <t>68491</t>
+    <t>107334-5</t>
   </si>
   <si>
     <t>Patient follow-up goal attainment scaling score</t>
   </si>
   <si>
-    <t>68492</t>
+    <t>107331-1</t>
   </si>
   <si>
     <t>Caregiver follow-up goal attainment scaling score</t>
